--- a/src/TFT_experiments.xlsx
+++ b/src/TFT_experiments.xlsx
@@ -1,87 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicov\Documents\Github\SPOT-Price-Forecast-NN\src\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F965EB9-6805-4DA3-884D-412273E6C265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>model_name</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>epochs</t>
-  </si>
-  <si>
-    <t>gradient_clip_val</t>
-  </si>
-  <si>
-    <t>hidden_size</t>
-  </si>
-  <si>
-    <t>dropout</t>
-  </si>
-  <si>
-    <t>hidden_continuous_size</t>
-  </si>
-  <si>
-    <t>attention_head_size</t>
-  </si>
-  <si>
-    <t>learning_rate</t>
-  </si>
-  <si>
-    <t>simple_week_365_144</t>
-  </si>
-  <si>
-    <t>simple_week_365_72</t>
-  </si>
-  <si>
-    <t>simple_week_700_144</t>
-  </si>
-  <si>
-    <t>simple_week_700_72</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -96,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -420,161 +420,219 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>model_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>epochs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>gradient_clip_val</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>hidden_size</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>dropout</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>hidden_continuous_size</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>attention_head_size</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>learning_rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>simple_week_365_144</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7.345021724700928</v>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01058413796901732</v>
+      </c>
+      <c r="E2" t="n">
+        <v>36</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2960659121982872</v>
+      </c>
+      <c r="G2" t="n">
+        <v>22</v>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
+      <c r="I2" t="n">
+        <v>0.001032231842009608</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>7.3450217247009277</v>
-      </c>
-      <c r="C2">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>simple_week_365_72</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7.55314302444458</v>
+      </c>
+      <c r="C3" t="n">
         <v>50</v>
       </c>
-      <c r="D2">
-        <v>1.058413796901732E-2</v>
-      </c>
-      <c r="E2">
+      <c r="D3" t="n">
+        <v>0.01058413796901732</v>
+      </c>
+      <c r="E3" t="n">
         <v>36</v>
       </c>
-      <c r="F2">
-        <v>0.29606591219828721</v>
-      </c>
-      <c r="G2">
+      <c r="F3" t="n">
+        <v>0.2960659121982872</v>
+      </c>
+      <c r="G3" t="n">
         <v>22</v>
       </c>
-      <c r="H2">
+      <c r="H3" t="n">
         <v>4</v>
       </c>
-      <c r="I2">
-        <v>1.0322318420096081E-3</v>
+      <c r="I3" t="n">
+        <v>0.001032231842009608</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>7.5531430244445801</v>
-      </c>
-      <c r="C3">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>simple_week_700_144</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.17315196990967</v>
+      </c>
+      <c r="C4" t="n">
         <v>50</v>
       </c>
-      <c r="D3">
-        <v>1.058413796901732E-2</v>
-      </c>
-      <c r="E3">
+      <c r="D4" t="n">
+        <v>0.01058413796901732</v>
+      </c>
+      <c r="E4" t="n">
         <v>36</v>
       </c>
-      <c r="F3">
-        <v>0.29606591219828721</v>
-      </c>
-      <c r="G3">
+      <c r="F4" t="n">
+        <v>0.2960659121982872</v>
+      </c>
+      <c r="G4" t="n">
         <v>22</v>
       </c>
-      <c r="H3">
+      <c r="H4" t="n">
         <v>4</v>
       </c>
-      <c r="I3">
-        <v>1.0322318420096081E-3</v>
+      <c r="I4" t="n">
+        <v>0.001032231842009608</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>10.17315196990967</v>
-      </c>
-      <c r="C4">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>simple_week_700_72</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10.45734119415283</v>
+      </c>
+      <c r="C5" t="n">
         <v>50</v>
       </c>
-      <c r="D4">
-        <v>1.058413796901732E-2</v>
-      </c>
-      <c r="E4">
+      <c r="D5" t="n">
+        <v>0.01058413796901732</v>
+      </c>
+      <c r="E5" t="n">
         <v>36</v>
       </c>
-      <c r="F4">
-        <v>0.29606591219828721</v>
-      </c>
-      <c r="G4">
+      <c r="F5" t="n">
+        <v>0.2960659121982872</v>
+      </c>
+      <c r="G5" t="n">
         <v>22</v>
       </c>
-      <c r="H4">
+      <c r="H5" t="n">
         <v>4</v>
       </c>
-      <c r="I4">
-        <v>1.0322318420096081E-3</v>
+      <c r="I5" t="n">
+        <v>0.001032231842009608</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>10.45734119415283</v>
-      </c>
-      <c r="C5">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>simple_month_365_168</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3.717712879180908</v>
+      </c>
+      <c r="C6" t="n">
         <v>50</v>
       </c>
-      <c r="D5">
-        <v>1.058413796901732E-2</v>
-      </c>
-      <c r="E5">
+      <c r="D6" t="n">
+        <v>0.01058413796901732</v>
+      </c>
+      <c r="E6" t="n">
         <v>36</v>
       </c>
-      <c r="F5">
-        <v>0.29606591219828721</v>
-      </c>
-      <c r="G5">
+      <c r="F6" t="n">
+        <v>0.2960659121982872</v>
+      </c>
+      <c r="G6" t="n">
         <v>22</v>
       </c>
-      <c r="H5">
+      <c r="H6" t="n">
         <v>4</v>
       </c>
-      <c r="I5">
-        <v>1.0322318420096081E-3</v>
+      <c r="I6" t="n">
+        <v>0.001032231842009608</v>
       </c>
     </row>
   </sheetData>

--- a/src/TFT_experiments.xlsx
+++ b/src/TFT_experiments.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nvegamun\Documents\SPOT-Price-Forecast-NN\src\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1740FCF5-8465-411A-8E00-1815FC60980C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+  <si>
+    <t>model_name</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>epochs</t>
+  </si>
+  <si>
+    <t>gradient_clip_val</t>
+  </si>
+  <si>
+    <t>hidden_size</t>
+  </si>
+  <si>
+    <t>dropout</t>
+  </si>
+  <si>
+    <t>hidden_continuous_size</t>
+  </si>
+  <si>
+    <t>attention_head_size</t>
+  </si>
+  <si>
+    <t>learning_rate</t>
+  </si>
+  <si>
+    <t>simple_week_365_144</t>
+  </si>
+  <si>
+    <t>simple_week_365_72</t>
+  </si>
+  <si>
+    <t>simple_week_700_144</t>
+  </si>
+  <si>
+    <t>simple_week_700_72</t>
+  </si>
+  <si>
+    <t>simple_month_365_168</t>
+  </si>
+  <si>
+    <t>simple_month_365_360</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,219 +426,301 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>model_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>loss</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>epochs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>gradient_clip_val</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>hidden_size</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>dropout</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>hidden_continuous_size</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>attention_head_size</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>learning_rate</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>simple_week_365_144</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>7.345021724700928</v>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>7.3450217247009277</v>
+      </c>
+      <c r="C2">
         <v>50</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.01058413796901732</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>1.058413796901732E-2</v>
+      </c>
+      <c r="E2">
         <v>36</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.2960659121982872</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="F2">
+        <v>0.29606591219828721</v>
+      </c>
+      <c r="G2">
         <v>22</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>4</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.001032231842009608</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>simple_week_365_72</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>7.55314302444458</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="I2">
+        <v>1.0322318420096081E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>7.5531430244445801</v>
+      </c>
+      <c r="C3">
         <v>50</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.01058413796901732</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>1.058413796901732E-2</v>
+      </c>
+      <c r="E3">
         <v>36</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.2960659121982872</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3">
+        <v>0.29606591219828721</v>
+      </c>
+      <c r="G3">
         <v>22</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.001032231842009608</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>simple_week_700_144</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="I3">
+        <v>1.0322318420096081E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
         <v>10.17315196990967</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>50</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.01058413796901732</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>1.058413796901732E-2</v>
+      </c>
+      <c r="E4">
         <v>36</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.2960659121982872</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="F4">
+        <v>0.29606591219828721</v>
+      </c>
+      <c r="G4">
         <v>22</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.001032231842009608</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>simple_week_700_72</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="I4">
+        <v>1.0322318420096081E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
         <v>10.45734119415283</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>50</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.01058413796901732</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>1.058413796901732E-2</v>
+      </c>
+      <c r="E5">
         <v>36</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.2960659121982872</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="F5">
+        <v>0.29606591219828721</v>
+      </c>
+      <c r="G5">
         <v>22</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="I5" t="n">
-        <v>0.001032231842009608</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>simple_month_365_168</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3.717712879180908</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="I5">
+        <v>1.0322318420096081E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>3.7177128791809082</v>
+      </c>
+      <c r="C6">
         <v>50</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.01058413796901732</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>1.058413796901732E-2</v>
+      </c>
+      <c r="E6">
         <v>36</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.2960659121982872</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="F6">
+        <v>0.29606591219828721</v>
+      </c>
+      <c r="G6">
         <v>22</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="I6" t="n">
-        <v>0.001032231842009608</v>
+      <c r="I6">
+        <v>1.0322318420096081E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>5.8080542774955037E-2</v>
+      </c>
+      <c r="E7">
+        <v>32</v>
+      </c>
+      <c r="F7">
+        <v>0.29971073704226991</v>
+      </c>
+      <c r="G7">
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>4.3718152046203613</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>5.8080542774955037E-2</v>
+      </c>
+      <c r="E8">
+        <v>32</v>
+      </c>
+      <c r="F8">
+        <v>0.29971073704226991</v>
+      </c>
+      <c r="G8">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>4.0717878341674796</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>5.8080542774955037E-2</v>
+      </c>
+      <c r="E9">
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <v>0.29971073704226991</v>
+      </c>
+      <c r="G9">
+        <v>19</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>5.2366366386413574</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>5.8080542774955037E-2</v>
+      </c>
+      <c r="E10">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <v>0.29971073704226991</v>
+      </c>
+      <c r="G10">
+        <v>19</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>

--- a/src/TFT_experiments.xlsx
+++ b/src/TFT_experiments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nvegamun\Documents\SPOT-Price-Forecast-NN\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicov\Documents\Github\SPOT-Price-Forecast-NN\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1740FCF5-8465-411A-8E00-1815FC60980C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0734F2-7228-4516-B3B7-BCD6EF64B590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>model_name</t>
   </si>
@@ -49,22 +49,22 @@
     <t>learning_rate</t>
   </si>
   <si>
-    <t>simple_week_365_144</t>
-  </si>
-  <si>
-    <t>simple_week_365_72</t>
-  </si>
-  <si>
-    <t>simple_week_700_144</t>
-  </si>
-  <si>
-    <t>simple_week_700_72</t>
-  </si>
-  <si>
-    <t>simple_month_365_168</t>
-  </si>
-  <si>
-    <t>simple_month_365_360</t>
+    <t>model_week_365_72</t>
+  </si>
+  <si>
+    <t>model_week_365_144</t>
+  </si>
+  <si>
+    <t>model_week_700_144</t>
+  </si>
+  <si>
+    <t>model_week_700_72</t>
+  </si>
+  <si>
+    <t>model_month_365_168</t>
+  </si>
+  <si>
+    <t>model_month_365_360</t>
   </si>
 </sst>
 </file>
@@ -427,16 +427,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,73 +467,73 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2">
-        <v>7.3450217247009277</v>
+        <v>10.83476448059082</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>1.058413796901732E-2</v>
+        <v>0.46964879113018859</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>0.29606591219828721</v>
+        <v>0.1039155309883323</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>4</v>
       </c>
       <c r="I2">
-        <v>1.0322318420096081E-3</v>
+        <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3">
-        <v>7.5531430244445801</v>
+        <v>8.7472858428955078</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>1.058413796901732E-2</v>
+        <v>0.46964879113018859</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>0.29606591219828721</v>
+        <v>0.1039155309883323</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>4</v>
       </c>
       <c r="I3">
-        <v>1.0322318420096081E-3</v>
+        <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>10.17315196990967</v>
+        <v>12.972177505493161</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>1.058413796901732E-2</v>
@@ -549,18 +551,18 @@
         <v>4</v>
       </c>
       <c r="I4">
-        <v>1.0322318420096081E-3</v>
+        <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>10.45734119415283</v>
+        <v>12.59808349609375</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>1.058413796901732E-2</v>
@@ -578,44 +580,47 @@
         <v>4</v>
       </c>
       <c r="I5">
-        <v>1.0322318420096081E-3</v>
+        <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6">
-        <v>3.7177128791809082</v>
+        <v>4.0717878341674796</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>1.058413796901732E-2</v>
+        <v>5.8080542774955037E-2</v>
       </c>
       <c r="E6">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>0.29606591219828721</v>
+        <v>0.29971073704226991</v>
       </c>
       <c r="G6">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1.0322318420096081E-3</v>
+        <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>5.2366366386413574</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>5.8080542774955037E-2</v>
@@ -633,93 +638,6 @@
         <v>2</v>
       </c>
       <c r="I7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>4.3718152046203613</v>
-      </c>
-      <c r="C8">
-        <v>50</v>
-      </c>
-      <c r="D8">
-        <v>5.8080542774955037E-2</v>
-      </c>
-      <c r="E8">
-        <v>32</v>
-      </c>
-      <c r="F8">
-        <v>0.29971073704226991</v>
-      </c>
-      <c r="G8">
-        <v>19</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>4.0717878341674796</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>5.8080542774955037E-2</v>
-      </c>
-      <c r="E9">
-        <v>32</v>
-      </c>
-      <c r="F9">
-        <v>0.29971073704226991</v>
-      </c>
-      <c r="G9">
-        <v>19</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>5.2366366386413574</v>
-      </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>5.8080542774955037E-2</v>
-      </c>
-      <c r="E10">
-        <v>32</v>
-      </c>
-      <c r="F10">
-        <v>0.29971073704226991</v>
-      </c>
-      <c r="G10">
-        <v>19</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
         <v>0.15</v>
       </c>
     </row>

--- a/src/TFT_experiments.xlsx
+++ b/src/TFT_experiments.xlsx
@@ -1,93 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicov\Documents\Github\SPOT-Price-Forecast-NN\src\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0734F2-7228-4516-B3B7-BCD6EF64B590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>model_name</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>epochs</t>
-  </si>
-  <si>
-    <t>gradient_clip_val</t>
-  </si>
-  <si>
-    <t>hidden_size</t>
-  </si>
-  <si>
-    <t>dropout</t>
-  </si>
-  <si>
-    <t>hidden_continuous_size</t>
-  </si>
-  <si>
-    <t>attention_head_size</t>
-  </si>
-  <si>
-    <t>learning_rate</t>
-  </si>
-  <si>
-    <t>model_week_365_72</t>
-  </si>
-  <si>
-    <t>model_week_365_144</t>
-  </si>
-  <si>
-    <t>model_week_700_144</t>
-  </si>
-  <si>
-    <t>model_week_700_72</t>
-  </si>
-  <si>
-    <t>model_month_365_168</t>
-  </si>
-  <si>
-    <t>model_month_365_360</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -102,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -426,219 +420,281 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>model_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>epochs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>gradient_clip_val</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>hidden_size</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>dropout</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>hidden_continuous_size</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>attention_head_size</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>learning_rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>model_week_365_72</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10.83476448059082</v>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4696487911301886</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1039155309883323</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>model_week_365_144</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8.747285842895508</v>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4696487911301886</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1039155309883323</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>model_week_700_72</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>12.97217750549316</v>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01058413796901732</v>
+      </c>
+      <c r="E4" t="n">
+        <v>36</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2960659121982872</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>model_week_700_144</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>12.59808349609375</v>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01058413796901732</v>
+      </c>
+      <c r="E5" t="n">
+        <v>36</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2960659121982872</v>
+      </c>
+      <c r="G5" t="n">
+        <v>22</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>model_month_365_168</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4.07178783416748</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05808054277495504</v>
+      </c>
+      <c r="E6" t="n">
+        <v>32</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2997107370422699</v>
+      </c>
+      <c r="G6" t="n">
+        <v>19</v>
+      </c>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
+      <c r="I6" t="n">
+        <v>0.15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>10.83476448059082</v>
-      </c>
-      <c r="C2">
-        <v>30</v>
-      </c>
-      <c r="D2">
-        <v>0.46964879113018859</v>
-      </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>0.1039155309883323</v>
-      </c>
-      <c r="G2">
-        <v>8</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>model_month_365_360</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.236636638641357</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05808054277495504</v>
+      </c>
+      <c r="E7" t="n">
+        <v>32</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2997107370422699</v>
+      </c>
+      <c r="G7" t="n">
+        <v>19</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>model_month_700_168</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.57568883895874</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.05808054277495504</v>
+      </c>
+      <c r="E8" t="n">
+        <v>32</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2997107370422699</v>
+      </c>
+      <c r="G8" t="n">
+        <v>19</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>8.7472858428955078</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
-      </c>
-      <c r="D3">
-        <v>0.46964879113018859</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>0.1039155309883323</v>
-      </c>
-      <c r="G3">
-        <v>8</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>12.972177505493161</v>
-      </c>
-      <c r="C4">
-        <v>30</v>
-      </c>
-      <c r="D4">
-        <v>1.058413796901732E-2</v>
-      </c>
-      <c r="E4">
-        <v>36</v>
-      </c>
-      <c r="F4">
-        <v>0.29606591219828721</v>
-      </c>
-      <c r="G4">
-        <v>22</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>12.59808349609375</v>
-      </c>
-      <c r="C5">
-        <v>30</v>
-      </c>
-      <c r="D5">
-        <v>1.058413796901732E-2</v>
-      </c>
-      <c r="E5">
-        <v>36</v>
-      </c>
-      <c r="F5">
-        <v>0.29606591219828721</v>
-      </c>
-      <c r="G5">
-        <v>22</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>4.0717878341674796</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>5.8080542774955037E-2</v>
-      </c>
-      <c r="E6">
-        <v>32</v>
-      </c>
-      <c r="F6">
-        <v>0.29971073704226991</v>
-      </c>
-      <c r="G6">
-        <v>19</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>5.2366366386413574</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>5.8080542774955037E-2</v>
-      </c>
-      <c r="E7">
-        <v>32</v>
-      </c>
-      <c r="F7">
-        <v>0.29971073704226991</v>
-      </c>
-      <c r="G7">
-        <v>19</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>0.15</v>
       </c>
     </row>
   </sheetData>

--- a/src/TFT_experiments.xlsx
+++ b/src/TFT_experiments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,6 +697,95 @@
         <v>0.05</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>model_month_700_360</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.05808054277495504</v>
+      </c>
+      <c r="E9" t="n">
+        <v>32</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2997107370422699</v>
+      </c>
+      <c r="G9" t="n">
+        <v>19</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>model_month_700_360</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.05808054277495504</v>
+      </c>
+      <c r="E10" t="n">
+        <v>32</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2997107370422699</v>
+      </c>
+      <c r="G10" t="n">
+        <v>19</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>model_month_700_360</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.345937252044678</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.05808054277495504</v>
+      </c>
+      <c r="E11" t="n">
+        <v>32</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2997107370422699</v>
+      </c>
+      <c r="G11" t="n">
+        <v>19</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/TFT_experiments.xlsx
+++ b/src/TFT_experiments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -703,7 +703,9 @@
           <t>model_month_700_360</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>5.345937252044678</v>
+      </c>
       <c r="C9" t="n">
         <v>30</v>
       </c>
@@ -723,16 +725,18 @@
         <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>model_month_700_360</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>model_month_700_504</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.529139041900635</v>
+      </c>
       <c r="C10" t="n">
         <v>30</v>
       </c>
@@ -752,38 +756,189 @@
         <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>model_month_700_360</t>
+          <t>model_month_700_504</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.345937252044678</v>
+        <v>6.403566360473633</v>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05808054277495504</v>
+        <v>0.05</v>
       </c>
       <c r="E11" t="n">
         <v>32</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2997107370422699</v>
+        <v>0.25</v>
       </c>
       <c r="G11" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I11" t="n">
         <v>0.01</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>model_month_365_72</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E12" t="n">
+        <v>32</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G12" t="n">
+        <v>32</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>model_month_365_72</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E13" t="n">
+        <v>32</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G13" t="n">
+        <v>32</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>model_month_365_72</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4.353591442108154</v>
+      </c>
+      <c r="C14" t="n">
+        <v>20</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E14" t="n">
+        <v>36</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>22</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>model_month_365_168</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3.740181922912598</v>
+      </c>
+      <c r="C15" t="n">
+        <v>25</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E15" t="n">
+        <v>36</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>22</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>model_month_365_72</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3.702678680419922</v>
+      </c>
+      <c r="C16" t="n">
+        <v>25</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E16" t="n">
+        <v>36</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>22</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.001</v>
       </c>
     </row>
   </sheetData>

--- a/src/TFT_experiments.xlsx
+++ b/src/TFT_experiments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,6 +941,99 @@
         <v>0.001</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>model_month_133_72</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2.063173770904541</v>
+      </c>
+      <c r="C17" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E17" t="n">
+        <v>36</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>22</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>model_week_133_72</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8.389998435974121</v>
+      </c>
+      <c r="C18" t="n">
+        <v>25</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E18" t="n">
+        <v>36</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>22</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>model_week_133_72</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5.055328369140625</v>
+      </c>
+      <c r="C19" t="n">
+        <v>50</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E19" t="n">
+        <v>36</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>22</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/TFT_experiments.xlsx
+++ b/src/TFT_experiments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,125 +483,125 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>model_week_365_72</t>
+          <t>model_month_113_72</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.83476448059082</v>
+        <v>1.618298530578613</v>
       </c>
       <c r="C2" t="n">
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4696487911301886</v>
+        <v>0.01</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1039155309883323</v>
+        <v>0.3</v>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>model_week_365_144</t>
+          <t>model_month_133_72</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.747285842895508</v>
+        <v>2.063173770904541</v>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4696487911301886</v>
+        <v>0.01</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1039155309883323</v>
+        <v>0.3</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>model_week_700_72</t>
+          <t>model_month_365_360</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.97217750549316</v>
+        <v>3.133453845977783</v>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01058413796901732</v>
+        <v>0.03</v>
       </c>
       <c r="E4" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2960659121982872</v>
+        <v>0.25</v>
       </c>
       <c r="G4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>model_week_700_144</t>
+          <t>model_month_365_360</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.59808349609375</v>
+        <v>3.346664428710938</v>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01058413796901732</v>
+        <v>0.03</v>
       </c>
       <c r="E5" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2960659121982872</v>
+        <v>0.25</v>
       </c>
       <c r="G5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -611,115 +611,115 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.07178783416748</v>
+        <v>3.64</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05808054277495504</v>
+        <v>0.3118237184625287</v>
       </c>
       <c r="E6" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2997107370422699</v>
+        <v>0.2942142845880926</v>
       </c>
       <c r="G6" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.15</v>
+        <v>0.002283777543696124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>model_month_365_360</t>
+          <t>model_month_365_72</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.236636638641357</v>
+        <v>3.702678680419922</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05808054277495504</v>
+        <v>0.01</v>
       </c>
       <c r="E7" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2997107370422699</v>
+        <v>0.3</v>
       </c>
       <c r="G7" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>0.15</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>model_month_700_168</t>
+          <t>model_month_365_168</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.57568883895874</v>
+        <v>3.740181922912598</v>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05808054277495504</v>
+        <v>0.01</v>
       </c>
       <c r="E8" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2997107370422699</v>
+        <v>0.3</v>
       </c>
       <c r="G8" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>model_month_700_360</t>
+          <t>model_month_200_72</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.345937252044678</v>
+        <v>3.747611522674561</v>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05808054277495504</v>
+        <v>0.03</v>
       </c>
       <c r="E9" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2997107370422699</v>
+        <v>0.25</v>
       </c>
       <c r="G9" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
@@ -731,26 +731,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>model_month_700_504</t>
+          <t>model_month_365_360</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.529139041900635</v>
+        <v>3.845516681671143</v>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05808054277495504</v>
+        <v>0.03</v>
       </c>
       <c r="E10" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2997107370422699</v>
+        <v>0.25</v>
       </c>
       <c r="G10" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
@@ -762,32 +762,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>model_month_700_504</t>
+          <t>model_month_365_168</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.403566360473633</v>
+        <v>4.07178783416748</v>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05</v>
+        <v>0.05808054277495504</v>
       </c>
       <c r="E11" t="n">
         <v>32</v>
       </c>
       <c r="F11" t="n">
-        <v>0.25</v>
+        <v>0.2997107370422699</v>
       </c>
       <c r="G11" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="12">
@@ -797,41 +797,41 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.353591442108154</v>
+        <v>4.297078609466553</v>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="E12" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="G12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>model_month_365_168</t>
+          <t>model_month_365_72</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.740181922912598</v>
+        <v>4.353591442108154</v>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
         <v>0.01</v>
@@ -855,45 +855,45 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>model_month_365_72</t>
+          <t>model_month_365_360</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.702678680419922</v>
+        <v>4.596550941467285</v>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="E14" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="G14" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>model_month_133_72</t>
+          <t>model_week_133_72</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.063173770904541</v>
+        <v>5.055328369140625</v>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D15" t="n">
         <v>0.01</v>
@@ -917,187 +917,431 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>model_week_133_72</t>
+          <t>model_month_365_360</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.389998435974121</v>
+        <v>5.236636638641357</v>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01</v>
+        <v>0.05808054277495504</v>
       </c>
       <c r="E16" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3</v>
+        <v>0.2997107370422699</v>
       </c>
       <c r="G16" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>model_week_133_72</t>
+          <t>model_month_700_360</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.055328369140625</v>
+        <v>5.345937252044678</v>
       </c>
       <c r="C17" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01</v>
+        <v>0.05808054277495504</v>
       </c>
       <c r="E17" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3</v>
+        <v>0.2997107370422699</v>
       </c>
       <c r="G17" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>model_week_133_24</t>
+          <t>model_month_700_504</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13.58229351043701</v>
+        <v>5.529139041900635</v>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01</v>
+        <v>0.05808054277495504</v>
       </c>
       <c r="E18" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3</v>
+        <v>0.2997107370422699</v>
       </c>
       <c r="G18" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>model_week_133_24</t>
+          <t>model_month_700_168</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.060751438140869</v>
+        <v>5.57568883895874</v>
       </c>
       <c r="C19" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01</v>
+        <v>0.05808054277495504</v>
       </c>
       <c r="E19" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3</v>
+        <v>0.2997107370422699</v>
       </c>
       <c r="G19" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>model_month_365_360</t>
+          <t>model_week_133_24</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.133453845977783</v>
+        <v>6.060751438140869</v>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="E20" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F20" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="G20" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H20" t="n">
         <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>model_month_365_72</t>
+          <t>model_month_700_504</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.297078609466553</v>
+        <v>6.403566360473633</v>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="E21" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F21" t="n">
         <v>0.25</v>
       </c>
       <c r="G21" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I21" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>model_week_133_72</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>8.389998435974121</v>
+      </c>
+      <c r="C22" t="n">
+        <v>25</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E22" t="n">
+        <v>36</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>22</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>model_week_365_144</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>8.747285842895508</v>
+      </c>
+      <c r="C23" t="n">
+        <v>30</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.4696487911301886</v>
+      </c>
+      <c r="E23" t="n">
+        <v>8</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.1039155309883323</v>
+      </c>
+      <c r="G23" t="n">
+        <v>8</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+      <c r="I23" t="n">
         <v>0.05</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>model_week_365_72</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>10.83476448059082</v>
+      </c>
+      <c r="C24" t="n">
+        <v>30</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.4696487911301886</v>
+      </c>
+      <c r="E24" t="n">
+        <v>8</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1039155309883323</v>
+      </c>
+      <c r="G24" t="n">
+        <v>8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>model_week_700_144</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>12.59808349609375</v>
+      </c>
+      <c r="C25" t="n">
+        <v>30</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.01058413796901732</v>
+      </c>
+      <c r="E25" t="n">
+        <v>36</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.2960659121982872</v>
+      </c>
+      <c r="G25" t="n">
+        <v>22</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>model_week_700_72</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>12.97217750549316</v>
+      </c>
+      <c r="C26" t="n">
+        <v>30</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.01058413796901732</v>
+      </c>
+      <c r="E26" t="n">
+        <v>36</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.2960659121982872</v>
+      </c>
+      <c r="G26" t="n">
+        <v>22</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>model_week_133_24</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>13.58229351043701</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E27" t="n">
+        <v>36</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G27" t="n">
+        <v>22</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>model_month_365_360</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>30</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E28" t="n">
+        <v>24</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G28" t="n">
+        <v>24</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>model_month_365_360</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>20</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E29" t="n">
+        <v>24</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G29" t="n">
+        <v>24</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/src/TFT_experiments.xlsx
+++ b/src/TFT_experiments.xlsx
@@ -486,20 +486,26 @@
           <t>model_month_113_72</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>1.618298530578613</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.618</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>30</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E2" t="n">
         <v>36</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.3</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
       </c>
       <c r="G2" t="n">
         <v>22</v>
@@ -507,8 +513,10 @@
       <c r="H2" t="n">
         <v>4</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.01</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.010</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -517,20 +525,26 @@
           <t>model_month_133_72</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>2.063173770904541</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2.063</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>25</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E3" t="n">
         <v>36</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.3</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
       </c>
       <c r="G3" t="n">
         <v>22</v>
@@ -538,8 +552,10 @@
       <c r="H3" t="n">
         <v>4</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.001</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -548,20 +564,26 @@
           <t>model_month_365_360</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>3.133453845977783</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3.133</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>20</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.03</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
       </c>
       <c r="E4" t="n">
         <v>24</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.25</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
       </c>
       <c r="G4" t="n">
         <v>24</v>
@@ -569,8 +591,10 @@
       <c r="H4" t="n">
         <v>4</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.005</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.005</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -579,20 +603,26 @@
           <t>model_month_365_360</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>3.346664428710938</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3.347</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>20</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.03</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
       </c>
       <c r="E5" t="n">
         <v>24</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.25</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
       </c>
       <c r="G5" t="n">
         <v>24</v>
@@ -600,8 +630,10 @@
       <c r="H5" t="n">
         <v>4</v>
       </c>
-      <c r="I5" t="n">
-        <v>0.01</v>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.010</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -610,20 +642,26 @@
           <t>model_month_365_168</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>3.64</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3.640</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>30</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.3118237184625287</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
       </c>
       <c r="E6" t="n">
         <v>13</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.2942142845880926</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
       </c>
       <c r="G6" t="n">
         <v>8</v>
@@ -631,8 +669,10 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
-        <v>0.002283777543696124</v>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -641,20 +681,26 @@
           <t>model_month_365_72</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>3.702678680419922</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3.703</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>25</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.01</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E7" t="n">
         <v>36</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.3</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
       </c>
       <c r="G7" t="n">
         <v>22</v>
@@ -662,8 +708,10 @@
       <c r="H7" t="n">
         <v>4</v>
       </c>
-      <c r="I7" t="n">
-        <v>0.001</v>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -672,20 +720,26 @@
           <t>model_month_365_168</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>3.740181922912598</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3.740</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>25</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.01</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E8" t="n">
         <v>36</v>
       </c>
-      <c r="F8" t="n">
-        <v>0.3</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
       </c>
       <c r="G8" t="n">
         <v>22</v>
@@ -693,8 +747,10 @@
       <c r="H8" t="n">
         <v>4</v>
       </c>
-      <c r="I8" t="n">
-        <v>0.001</v>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -703,20 +759,26 @@
           <t>model_month_200_72</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>3.747611522674561</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3.748</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>40</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.03</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
       </c>
       <c r="E9" t="n">
         <v>24</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.25</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
       </c>
       <c r="G9" t="n">
         <v>24</v>
@@ -724,8 +786,10 @@
       <c r="H9" t="n">
         <v>2</v>
       </c>
-      <c r="I9" t="n">
-        <v>0.01</v>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.010</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -734,20 +798,26 @@
           <t>model_month_365_360</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>3.845516681671143</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3.846</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>40</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.03</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
       </c>
       <c r="E10" t="n">
         <v>24</v>
       </c>
-      <c r="F10" t="n">
-        <v>0.25</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
       </c>
       <c r="G10" t="n">
         <v>24</v>
@@ -755,8 +825,10 @@
       <c r="H10" t="n">
         <v>2</v>
       </c>
-      <c r="I10" t="n">
-        <v>0.01</v>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.010</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -765,20 +837,26 @@
           <t>model_month_365_168</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>4.07178783416748</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4.072</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>20</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.05808054277495504</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
       </c>
       <c r="E11" t="n">
         <v>32</v>
       </c>
-      <c r="F11" t="n">
-        <v>0.2997107370422699</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
       </c>
       <c r="G11" t="n">
         <v>19</v>
@@ -786,8 +864,10 @@
       <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="I11" t="n">
-        <v>0.15</v>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.150</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -796,20 +876,26 @@
           <t>model_month_365_72</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>4.297078609466553</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>4.297</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>30</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.03</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
       </c>
       <c r="E12" t="n">
         <v>24</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.25</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
       </c>
       <c r="G12" t="n">
         <v>24</v>
@@ -817,8 +903,10 @@
       <c r="H12" t="n">
         <v>4</v>
       </c>
-      <c r="I12" t="n">
-        <v>0.05</v>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.050</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -827,20 +915,26 @@
           <t>model_month_365_72</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>4.353591442108154</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4.354</t>
+        </is>
       </c>
       <c r="C13" t="n">
         <v>20</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.01</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E13" t="n">
         <v>36</v>
       </c>
-      <c r="F13" t="n">
-        <v>0.3</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
       </c>
       <c r="G13" t="n">
         <v>22</v>
@@ -848,8 +942,10 @@
       <c r="H13" t="n">
         <v>4</v>
       </c>
-      <c r="I13" t="n">
-        <v>0.001</v>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -858,20 +954,26 @@
           <t>model_month_365_360</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>4.596550941467285</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>4.597</t>
+        </is>
       </c>
       <c r="C14" t="n">
         <v>20</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.03</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
       </c>
       <c r="E14" t="n">
         <v>24</v>
       </c>
-      <c r="F14" t="n">
-        <v>0.25</v>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
       </c>
       <c r="G14" t="n">
         <v>24</v>
@@ -879,8 +981,10 @@
       <c r="H14" t="n">
         <v>2</v>
       </c>
-      <c r="I14" t="n">
-        <v>0.1</v>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -889,20 +993,26 @@
           <t>model_week_133_72</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>5.055328369140625</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>5.055</t>
+        </is>
       </c>
       <c r="C15" t="n">
         <v>50</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.01</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E15" t="n">
         <v>36</v>
       </c>
-      <c r="F15" t="n">
-        <v>0.3</v>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
       </c>
       <c r="G15" t="n">
         <v>22</v>
@@ -910,8 +1020,10 @@
       <c r="H15" t="n">
         <v>4</v>
       </c>
-      <c r="I15" t="n">
-        <v>0.001</v>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -920,20 +1032,26 @@
           <t>model_month_365_360</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>5.236636638641357</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>5.237</t>
+        </is>
       </c>
       <c r="C16" t="n">
         <v>20</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.05808054277495504</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
       </c>
       <c r="E16" t="n">
         <v>32</v>
       </c>
-      <c r="F16" t="n">
-        <v>0.2997107370422699</v>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
       </c>
       <c r="G16" t="n">
         <v>19</v>
@@ -941,8 +1059,10 @@
       <c r="H16" t="n">
         <v>2</v>
       </c>
-      <c r="I16" t="n">
-        <v>0.15</v>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.150</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -951,20 +1071,26 @@
           <t>model_month_700_360</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>5.345937252044678</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>5.346</t>
+        </is>
       </c>
       <c r="C17" t="n">
         <v>30</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.05808054277495504</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
       </c>
       <c r="E17" t="n">
         <v>32</v>
       </c>
-      <c r="F17" t="n">
-        <v>0.2997107370422699</v>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
       </c>
       <c r="G17" t="n">
         <v>19</v>
@@ -972,8 +1098,10 @@
       <c r="H17" t="n">
         <v>2</v>
       </c>
-      <c r="I17" t="n">
-        <v>0.01</v>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0.010</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -982,20 +1110,26 @@
           <t>model_month_700_504</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>5.529139041900635</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>5.529</t>
+        </is>
       </c>
       <c r="C18" t="n">
         <v>30</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.05808054277495504</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
       </c>
       <c r="E18" t="n">
         <v>32</v>
       </c>
-      <c r="F18" t="n">
-        <v>0.2997107370422699</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
       </c>
       <c r="G18" t="n">
         <v>19</v>
@@ -1003,8 +1137,10 @@
       <c r="H18" t="n">
         <v>2</v>
       </c>
-      <c r="I18" t="n">
-        <v>0.01</v>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0.010</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1013,20 +1149,26 @@
           <t>model_month_700_168</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>5.57568883895874</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>5.576</t>
+        </is>
       </c>
       <c r="C19" t="n">
         <v>20</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.05808054277495504</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
       </c>
       <c r="E19" t="n">
         <v>32</v>
       </c>
-      <c r="F19" t="n">
-        <v>0.2997107370422699</v>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
       </c>
       <c r="G19" t="n">
         <v>19</v>
@@ -1034,8 +1176,10 @@
       <c r="H19" t="n">
         <v>2</v>
       </c>
-      <c r="I19" t="n">
-        <v>0.05</v>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0.050</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1044,20 +1188,26 @@
           <t>model_week_133_24</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>6.060751438140869</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>6.061</t>
+        </is>
       </c>
       <c r="C20" t="n">
         <v>100</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.01</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E20" t="n">
         <v>36</v>
       </c>
-      <c r="F20" t="n">
-        <v>0.3</v>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
       </c>
       <c r="G20" t="n">
         <v>22</v>
@@ -1065,8 +1215,10 @@
       <c r="H20" t="n">
         <v>4</v>
       </c>
-      <c r="I20" t="n">
-        <v>0.001</v>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1075,20 +1227,26 @@
           <t>model_month_700_504</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>6.403566360473633</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>6.404</t>
+        </is>
       </c>
       <c r="C21" t="n">
         <v>25</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.05</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
       </c>
       <c r="E21" t="n">
         <v>32</v>
       </c>
-      <c r="F21" t="n">
-        <v>0.25</v>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
       </c>
       <c r="G21" t="n">
         <v>32</v>
@@ -1096,8 +1254,10 @@
       <c r="H21" t="n">
         <v>6</v>
       </c>
-      <c r="I21" t="n">
-        <v>0.01</v>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0.010</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1106,20 +1266,26 @@
           <t>model_week_133_72</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>8.389998435974121</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>8.390</t>
+        </is>
       </c>
       <c r="C22" t="n">
         <v>25</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.01</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E22" t="n">
         <v>36</v>
       </c>
-      <c r="F22" t="n">
-        <v>0.3</v>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
       </c>
       <c r="G22" t="n">
         <v>22</v>
@@ -1127,8 +1293,10 @@
       <c r="H22" t="n">
         <v>4</v>
       </c>
-      <c r="I22" t="n">
-        <v>0.001</v>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1137,20 +1305,26 @@
           <t>model_week_365_144</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>8.747285842895508</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>8.747</t>
+        </is>
       </c>
       <c r="C23" t="n">
         <v>30</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.4696487911301886</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
       </c>
       <c r="E23" t="n">
         <v>8</v>
       </c>
-      <c r="F23" t="n">
-        <v>0.1039155309883323</v>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
       </c>
       <c r="G23" t="n">
         <v>8</v>
@@ -1158,8 +1332,10 @@
       <c r="H23" t="n">
         <v>4</v>
       </c>
-      <c r="I23" t="n">
-        <v>0.05</v>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0.050</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1168,20 +1344,26 @@
           <t>model_week_365_72</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>10.83476448059082</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>10.835</t>
+        </is>
       </c>
       <c r="C24" t="n">
         <v>30</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.4696487911301886</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
       </c>
       <c r="E24" t="n">
         <v>8</v>
       </c>
-      <c r="F24" t="n">
-        <v>0.1039155309883323</v>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
       </c>
       <c r="G24" t="n">
         <v>8</v>
@@ -1189,8 +1371,10 @@
       <c r="H24" t="n">
         <v>4</v>
       </c>
-      <c r="I24" t="n">
-        <v>0.05</v>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0.050</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1199,20 +1383,26 @@
           <t>model_week_700_144</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>12.59808349609375</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>12.598</t>
+        </is>
       </c>
       <c r="C25" t="n">
         <v>30</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.01058413796901732</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E25" t="n">
         <v>36</v>
       </c>
-      <c r="F25" t="n">
-        <v>0.2960659121982872</v>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
       </c>
       <c r="G25" t="n">
         <v>22</v>
@@ -1220,8 +1410,10 @@
       <c r="H25" t="n">
         <v>4</v>
       </c>
-      <c r="I25" t="n">
-        <v>0.05</v>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0.050</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1230,20 +1422,26 @@
           <t>model_week_700_72</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>12.97217750549316</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>12.972</t>
+        </is>
       </c>
       <c r="C26" t="n">
         <v>30</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.01058413796901732</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E26" t="n">
         <v>36</v>
       </c>
-      <c r="F26" t="n">
-        <v>0.2960659121982872</v>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
       </c>
       <c r="G26" t="n">
         <v>22</v>
@@ -1251,8 +1449,10 @@
       <c r="H26" t="n">
         <v>4</v>
       </c>
-      <c r="I26" t="n">
-        <v>0.05</v>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0.050</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1261,20 +1461,26 @@
           <t>model_week_133_24</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>13.58229351043701</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>13.582</t>
+        </is>
       </c>
       <c r="C27" t="n">
         <v>25</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.01</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
       </c>
       <c r="E27" t="n">
         <v>36</v>
       </c>
-      <c r="F27" t="n">
-        <v>0.3</v>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
       </c>
       <c r="G27" t="n">
         <v>22</v>
@@ -1282,8 +1488,10 @@
       <c r="H27" t="n">
         <v>4</v>
       </c>
-      <c r="I27" t="n">
-        <v>0.001</v>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1292,18 +1500,26 @@
           <t>model_month_365_360</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="C28" t="n">
         <v>30</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.03</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
       </c>
       <c r="E28" t="n">
         <v>24</v>
       </c>
-      <c r="F28" t="n">
-        <v>0.25</v>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
       </c>
       <c r="G28" t="n">
         <v>24</v>
@@ -1311,8 +1527,10 @@
       <c r="H28" t="n">
         <v>2</v>
       </c>
-      <c r="I28" t="n">
-        <v>0.01</v>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0.010</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1321,18 +1539,26 @@
           <t>model_month_365_360</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="C29" t="n">
         <v>20</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.03</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
       </c>
       <c r="E29" t="n">
         <v>24</v>
       </c>
-      <c r="F29" t="n">
-        <v>0.25</v>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
       </c>
       <c r="G29" t="n">
         <v>24</v>
@@ -1340,8 +1566,10 @@
       <c r="H29" t="n">
         <v>2</v>
       </c>
-      <c r="I29" t="n">
-        <v>0.1</v>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/src/TFT_experiments.xlsx
+++ b/src/TFT_experiments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,26 +486,20 @@
           <t>model_month_113_72</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1.618</t>
-        </is>
+      <c r="B2" t="n">
+        <v>1.618</v>
       </c>
       <c r="C2" t="n">
         <v>30</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
+      <c r="D2" t="n">
+        <v>0.01</v>
       </c>
       <c r="E2" t="n">
         <v>36</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
+      <c r="F2" t="n">
+        <v>0.3</v>
       </c>
       <c r="G2" t="n">
         <v>22</v>
@@ -513,10 +507,8 @@
       <c r="H2" t="n">
         <v>4</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.010</t>
-        </is>
+      <c r="I2" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -525,26 +517,20 @@
           <t>model_month_133_72</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2.063</t>
-        </is>
+      <c r="B3" t="n">
+        <v>2.063</v>
       </c>
       <c r="C3" t="n">
         <v>25</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
+      <c r="D3" t="n">
+        <v>0.01</v>
       </c>
       <c r="E3" t="n">
         <v>36</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
+      <c r="F3" t="n">
+        <v>0.3</v>
       </c>
       <c r="G3" t="n">
         <v>22</v>
@@ -552,10 +538,8 @@
       <c r="H3" t="n">
         <v>4</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.001</t>
-        </is>
+      <c r="I3" t="n">
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -564,26 +548,20 @@
           <t>model_month_365_360</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3.133</t>
-        </is>
+      <c r="B4" t="n">
+        <v>3.133</v>
       </c>
       <c r="C4" t="n">
         <v>20</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
+      <c r="D4" t="n">
+        <v>0.03</v>
       </c>
       <c r="E4" t="n">
         <v>24</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
+      <c r="F4" t="n">
+        <v>0.25</v>
       </c>
       <c r="G4" t="n">
         <v>24</v>
@@ -591,10 +569,8 @@
       <c r="H4" t="n">
         <v>4</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.005</t>
-        </is>
+      <c r="I4" t="n">
+        <v>0.005</v>
       </c>
     </row>
     <row r="5">
@@ -603,26 +579,20 @@
           <t>model_month_365_360</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3.347</t>
-        </is>
+      <c r="B5" t="n">
+        <v>3.347</v>
       </c>
       <c r="C5" t="n">
         <v>20</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
+      <c r="D5" t="n">
+        <v>0.03</v>
       </c>
       <c r="E5" t="n">
         <v>24</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
+      <c r="F5" t="n">
+        <v>0.25</v>
       </c>
       <c r="G5" t="n">
         <v>24</v>
@@ -630,116 +600,92 @@
       <c r="H5" t="n">
         <v>4</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.010</t>
-        </is>
+      <c r="I5" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>model_month_365_168</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>3.640</t>
-        </is>
+          <t>model_month_365_360</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3.387256622314453</v>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.25</v>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>model_month_365_72</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3.703</t>
-        </is>
+          <t>model_month_365_168</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.64</v>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
+        <v>30</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.31</v>
       </c>
       <c r="E7" t="n">
-        <v>36</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.29</v>
       </c>
       <c r="G7" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.001</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>model_month_365_168</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3.740</t>
-        </is>
+          <t>model_month_365_72</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.703</v>
       </c>
       <c r="C8" t="n">
         <v>25</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
+      <c r="D8" t="n">
+        <v>0.01</v>
       </c>
       <c r="E8" t="n">
         <v>36</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
+      <c r="F8" t="n">
+        <v>0.3</v>
       </c>
       <c r="G8" t="n">
         <v>22</v>
@@ -747,77 +693,61 @@
       <c r="H8" t="n">
         <v>4</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.001</t>
-        </is>
+      <c r="I8" t="n">
+        <v>0.001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>model_month_200_72</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3.748</t>
-        </is>
+          <t>model_month_365_168</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3.74</v>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
+        <v>25</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.01</v>
       </c>
       <c r="E9" t="n">
-        <v>24</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
+        <v>36</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3</v>
       </c>
       <c r="G9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.010</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>model_month_365_360</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3.846</t>
-        </is>
+          <t>model_month_200_72</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.748</v>
       </c>
       <c r="C10" t="n">
         <v>40</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
+      <c r="D10" t="n">
+        <v>0.03</v>
       </c>
       <c r="E10" t="n">
         <v>24</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
+      <c r="F10" t="n">
+        <v>0.25</v>
       </c>
       <c r="G10" t="n">
         <v>24</v>
@@ -825,88 +755,70 @@
       <c r="H10" t="n">
         <v>2</v>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.010</t>
-        </is>
+      <c r="I10" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>model_month_365_168</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>4.072</t>
-        </is>
+          <t>model_month_365_360</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.846</v>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
+        <v>40</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.03</v>
       </c>
       <c r="E11" t="n">
-        <v>32</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.25</v>
       </c>
       <c r="G11" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.150</t>
-        </is>
+      <c r="I11" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>model_month_365_72</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>4.297</t>
-        </is>
+          <t>model_month_365_168</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.072</v>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
+        <v>20</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.06</v>
       </c>
       <c r="E12" t="n">
-        <v>24</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
+        <v>32</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.3</v>
       </c>
       <c r="G12" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0.050</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="13">
@@ -915,182 +827,144 @@
           <t>model_month_365_72</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>4.354</t>
-        </is>
+      <c r="B13" t="n">
+        <v>4.297</v>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
+        <v>30</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.03</v>
       </c>
       <c r="E13" t="n">
-        <v>36</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.25</v>
       </c>
       <c r="G13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.001</t>
-        </is>
+      <c r="I13" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>model_month_365_360</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>4.597</t>
-        </is>
+          <t>model_month_365_72</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4.354</v>
       </c>
       <c r="C14" t="n">
         <v>20</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
+      <c r="D14" t="n">
+        <v>0.01</v>
       </c>
       <c r="E14" t="n">
-        <v>24</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
+        <v>36</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.3</v>
       </c>
       <c r="G14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>model_week_133_72</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>5.055</t>
-        </is>
+          <t>model_month_365_360</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4.597</v>
       </c>
       <c r="C15" t="n">
-        <v>50</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
+        <v>20</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.03</v>
       </c>
       <c r="E15" t="n">
-        <v>36</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.25</v>
       </c>
       <c r="G15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0.001</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>model_month_365_360</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>5.237</t>
-        </is>
+          <t>model_week_133_72</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5.055</v>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
+        <v>50</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.01</v>
       </c>
       <c r="E16" t="n">
-        <v>32</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
+        <v>36</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.3</v>
       </c>
       <c r="G16" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0.150</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>model_month_700_360</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>5.346</t>
-        </is>
+          <t>model_month_365_360</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5.237</v>
       </c>
       <c r="C17" t="n">
-        <v>30</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
+        <v>20</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.06</v>
       </c>
       <c r="E17" t="n">
         <v>32</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
+      <c r="F17" t="n">
+        <v>0.3</v>
       </c>
       <c r="G17" t="n">
         <v>19</v>
@@ -1098,38 +972,30 @@
       <c r="H17" t="n">
         <v>2</v>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0.010</t>
-        </is>
+      <c r="I17" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>model_month_700_504</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>5.529</t>
-        </is>
+          <t>model_month_700_360</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5.346</v>
       </c>
       <c r="C18" t="n">
         <v>30</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
+      <c r="D18" t="n">
+        <v>0.06</v>
       </c>
       <c r="E18" t="n">
         <v>32</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
+      <c r="F18" t="n">
+        <v>0.3</v>
       </c>
       <c r="G18" t="n">
         <v>19</v>
@@ -1137,38 +1003,30 @@
       <c r="H18" t="n">
         <v>2</v>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>0.010</t>
-        </is>
+      <c r="I18" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>model_month_700_168</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>5.576</t>
-        </is>
+          <t>model_month_700_504</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5.529</v>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
+        <v>30</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.06</v>
       </c>
       <c r="E19" t="n">
         <v>32</v>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
+      <c r="F19" t="n">
+        <v>0.3</v>
       </c>
       <c r="G19" t="n">
         <v>19</v>
@@ -1176,194 +1034,154 @@
       <c r="H19" t="n">
         <v>2</v>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>0.050</t>
-        </is>
+      <c r="I19" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>model_week_133_24</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>6.061</t>
-        </is>
+          <t>model_month_700_168</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5.576</v>
       </c>
       <c r="C20" t="n">
-        <v>100</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
+        <v>20</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.06</v>
       </c>
       <c r="E20" t="n">
-        <v>36</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
+        <v>32</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.3</v>
       </c>
       <c r="G20" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0.001</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>model_month_700_504</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>6.404</t>
-        </is>
+          <t>model_week_133_24</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6.061</v>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.01</v>
       </c>
       <c r="E21" t="n">
-        <v>32</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
+        <v>36</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.3</v>
       </c>
       <c r="G21" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>0.010</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>model_week_133_72</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>8.390</t>
-        </is>
+          <t>model_month_700_504</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>6.404</v>
       </c>
       <c r="C22" t="n">
         <v>25</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
+      <c r="D22" t="n">
+        <v>0.05</v>
       </c>
       <c r="E22" t="n">
-        <v>36</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
+        <v>32</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.25</v>
       </c>
       <c r="G22" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>0.001</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>model_week_365_144</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>8.747</t>
-        </is>
+          <t>model_week_133_72</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>8.390000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>30</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
+        <v>25</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.01</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
+        <v>36</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.3</v>
       </c>
       <c r="G23" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H23" t="n">
         <v>4</v>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>0.050</t>
-        </is>
+      <c r="I23" t="n">
+        <v>0.001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>model_week_365_72</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>10.835</t>
-        </is>
+          <t>model_week_365_144</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>8.747</v>
       </c>
       <c r="C24" t="n">
         <v>30</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
+      <c r="D24" t="n">
+        <v>0.47</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
+      <c r="F24" t="n">
+        <v>0.1</v>
       </c>
       <c r="G24" t="n">
         <v>8</v>
@@ -1371,77 +1189,61 @@
       <c r="H24" t="n">
         <v>4</v>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>0.050</t>
-        </is>
+      <c r="I24" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>model_week_700_144</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>12.598</t>
-        </is>
+          <t>model_week_365_72</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>10.835</v>
       </c>
       <c r="C25" t="n">
         <v>30</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
+      <c r="D25" t="n">
+        <v>0.47</v>
       </c>
       <c r="E25" t="n">
-        <v>36</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.1</v>
       </c>
       <c r="G25" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H25" t="n">
         <v>4</v>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0.050</t>
-        </is>
+      <c r="I25" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>model_week_700_72</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>12.972</t>
-        </is>
+          <t>model_week_700_144</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>12.598</v>
       </c>
       <c r="C26" t="n">
         <v>30</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
+      <c r="D26" t="n">
+        <v>0.01</v>
       </c>
       <c r="E26" t="n">
         <v>36</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
+      <c r="F26" t="n">
+        <v>0.3</v>
       </c>
       <c r="G26" t="n">
         <v>22</v>
@@ -1449,38 +1251,30 @@
       <c r="H26" t="n">
         <v>4</v>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0.050</t>
-        </is>
+      <c r="I26" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>model_week_133_24</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>13.582</t>
-        </is>
+          <t>model_week_700_72</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>12.972</v>
       </c>
       <c r="C27" t="n">
-        <v>25</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
+        <v>30</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.01</v>
       </c>
       <c r="E27" t="n">
         <v>36</v>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
+      <c r="F27" t="n">
+        <v>0.3</v>
       </c>
       <c r="G27" t="n">
         <v>22</v>
@@ -1488,49 +1282,39 @@
       <c r="H27" t="n">
         <v>4</v>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0.001</t>
-        </is>
+      <c r="I27" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>model_month_365_360</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
+          <t>model_week_133_24</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>13.582</v>
       </c>
       <c r="C28" t="n">
-        <v>30</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
+        <v>25</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.01</v>
       </c>
       <c r="E28" t="n">
-        <v>24</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
+        <v>36</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.3</v>
       </c>
       <c r="G28" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>0.010</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.001</v>
       </c>
     </row>
     <row r="29">
@@ -1539,26 +1323,18 @@
           <t>model_month_365_360</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>20</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
+        <v>30</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.03</v>
       </c>
       <c r="E29" t="n">
         <v>24</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
+      <c r="F29" t="n">
+        <v>0.25</v>
       </c>
       <c r="G29" t="n">
         <v>24</v>
@@ -1566,10 +1342,95 @@
       <c r="H29" t="n">
         <v>2</v>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
+      <c r="I29" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>model_month_365_360</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="n">
+        <v>20</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E30" t="n">
+        <v>24</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G30" t="n">
+        <v>24</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>model_month_365_360</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>20</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E31" t="n">
+        <v>24</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G31" t="n">
+        <v>24</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>model_month_365_360</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>13</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E32" t="n">
+        <v>24</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G32" t="n">
+        <v>24</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
